--- a/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-206 Franchise Food_01.xlsx
+++ b/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-206 Franchise Food_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Import Files\Retail Item\WorkingXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3035994-EF3F-4E56-95E5-99C44E2D874A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1772EA5A-27D3-4ADE-B9AA-F38164079DD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="105">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -295,10 +295,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>FD PINK WALLEYE 11lb</t>
-  </si>
-  <si>
-    <t>206 08 000 Family Diner</t>
+    <t>DD CO-OP HOT CUP DW 12Z</t>
+  </si>
+  <si>
+    <t>206 20 000 Coffee Supply</t>
   </si>
   <si>
     <t>Count</t>
@@ -325,49 +325,16 @@
     <t>Transfer Group</t>
   </si>
   <si>
-    <t>FD CHICKEN TEND ORIG</t>
-  </si>
-  <si>
-    <t>FD CHICK BREAST BNLS/SKLS</t>
-  </si>
-  <si>
-    <t>FD CHICKEN WING BNLS</t>
-  </si>
-  <si>
-    <t>FD MM/CHOC CHIP COOKIE DOUGH</t>
-  </si>
-  <si>
-    <t>FD OATMEAL RAISIN COOKIE DOUGH</t>
-  </si>
-  <si>
-    <t>FD TERIYAKI SAUCE GAL</t>
-  </si>
-  <si>
-    <t>FD HONEY MUSTARD GAL</t>
-  </si>
-  <si>
-    <t>FD LEMON PEPPER</t>
-  </si>
-  <si>
-    <t>FD FOOD TRAY PAPER</t>
-  </si>
-  <si>
-    <t>FD KIDS CUP YELLOW THERMO</t>
-  </si>
-  <si>
-    <t>DD CO-OP COOKIES AND CREME SWIRL</t>
-  </si>
-  <si>
-    <t>206 20 001 Supply Perisable</t>
-  </si>
-  <si>
-    <t>Dunkin Donuts</t>
-  </si>
-  <si>
-    <t>DD CO-OP HERSHEYS COOKIES AND CREME CHOP TOPPING</t>
-  </si>
-  <si>
-    <t>206 26 002 LTO Donut</t>
+    <t>DD CO-OP HOT CUP DW 14Z</t>
+  </si>
+  <si>
+    <t>DD CO-OP HOT CUP DW 18Z</t>
+  </si>
+  <si>
+    <t>DD CO-OP HOT CUP DW 22Z</t>
+  </si>
+  <si>
+    <t>OPTIMA LID DW HOT CUPS</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI16"/>
+  <dimension ref="A1:DI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1584,36 +1551,36 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="15"/>
-    <col min="43" max="43" width="19.33203125" style="13" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="6" customWidth="1"/>
-    <col min="46" max="103" width="15.6640625" customWidth="1"/>
-    <col min="104" max="113" width="19.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="15"/>
+    <col min="43" max="43" width="19.28515625" style="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="6" customWidth="1"/>
+    <col min="46" max="103" width="15.7109375" customWidth="1"/>
+    <col min="104" max="113" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="25"/>
       <c r="C1" s="34" t="s">
@@ -1740,7 +1707,7 @@
       <c r="DH1" s="32"/>
       <c r="DI1" s="33"/>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1912,7 @@
       <c r="DH2" s="27"/>
       <c r="DI2" s="28"/>
     </row>
-    <row r="3" spans="1:113" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="3"/>
@@ -2264,9 +2231,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1124381</v>
+        <v>1125791</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2341,9 +2308,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1124382</v>
+        <v>1125792</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -2418,9 +2385,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1124383</v>
+        <v>1125793</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -2495,9 +2462,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1124384</v>
+        <v>1125794</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
@@ -2572,9 +2539,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1124385</v>
+        <v>1125796</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
@@ -2646,628 +2613,6 @@
         <v>99</v>
       </c>
       <c r="CZ8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1124386</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1124387</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1124388</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO11" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1124389</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1124390</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" t="s">
-        <v>90</v>
-      </c>
-      <c r="S13" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1124391</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1124531</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="s">
-        <v>90</v>
-      </c>
-      <c r="S15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1124532</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO16" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="CZ16" t="s">
         <v>100</v>
       </c>
     </row>
